--- a/Arquivos/Acerto AP.xlsx
+++ b/Arquivos/Acerto AP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xamp\htdocs\Testes\Controle_Financeiro\Arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Xampp\htdocs\Testes\Controle_Financeiro\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E724D7C8-F879-404B-A60A-17F6CCB6E263}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03168B4-B67B-48A4-BAFB-DD22153B1165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{259B233A-82EC-4420-B52E-363BB860C0EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{259B233A-82EC-4420-B52E-363BB860C0EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="26">
   <si>
     <t>Descricao</t>
   </si>
@@ -116,7 +116,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -200,20 +200,20 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,19 +664,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A21A576-F462-4417-98D5-276940579365}">
   <dimension ref="B2:H62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="8" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="8" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
@@ -720,7 +720,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
@@ -743,7 +743,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
@@ -766,7 +766,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
@@ -789,7 +789,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
@@ -812,7 +812,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
@@ -858,7 +858,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
@@ -925,7 +925,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -946,7 +946,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
@@ -969,7 +969,7 @@
         <v>570.9</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -990,7 +990,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>18</v>
       </c>
@@ -1191,8 +1191,10 @@
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
+    <row r="25" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C25" s="8">
         <v>43709</v>
       </c>
@@ -1203,15 +1205,17 @@
         <v>17</v>
       </c>
       <c r="F25" s="7">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
+    <row r="26" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C26" s="8">
         <v>43718</v>
       </c>
@@ -1222,17 +1226,19 @@
         <v>16</v>
       </c>
       <c r="F26" s="7">
-        <v>1519.48</v>
+        <v>1582.81</v>
       </c>
       <c r="G26" s="7">
-        <v>909.5</v>
+        <v>909</v>
       </c>
       <c r="H26" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C27" s="8">
         <v>43739</v>
       </c>
@@ -1243,17 +1249,19 @@
         <v>17</v>
       </c>
       <c r="F27" s="7">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
+    <row r="28" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C28" s="8">
-        <v>43748</v>
+        <v>43753</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>24</v>
@@ -1262,17 +1270,20 @@
         <v>16</v>
       </c>
       <c r="F28" s="7">
-        <v>1519.48</v>
+        <v>1591.52</v>
       </c>
       <c r="G28" s="7">
-        <v>909.5</v>
+        <f>Tabela1[[#This Row],[Total]]+F27-H27-Tabela1[[#This Row],[Fernanda]]</f>
+        <v>1101.52</v>
       </c>
       <c r="H28" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C29" s="8">
         <v>43770</v>
       </c>
@@ -1283,15 +1294,17 @@
         <v>17</v>
       </c>
       <c r="F29" s="7">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
+    <row r="30" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C30" s="8">
         <v>43779</v>
       </c>
@@ -1302,16 +1315,17 @@
         <v>16</v>
       </c>
       <c r="F30" s="7">
-        <v>1519.48</v>
+        <v>1598.32</v>
       </c>
       <c r="G30" s="7">
-        <v>909.5</v>
+        <f>Tabela1[[#This Row],[Total]]-Tabela1[[#This Row],[Fernanda]]-H29+F29</f>
+        <v>1108.32</v>
       </c>
       <c r="H30" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
       <c r="C31" s="8">
         <v>43800</v>
@@ -1323,14 +1337,14 @@
         <v>17</v>
       </c>
       <c r="F31" s="7">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="8">
         <v>43809</v>
@@ -1351,7 +1365,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="8">
         <v>43831</v>
@@ -1363,14 +1377,14 @@
         <v>17</v>
       </c>
       <c r="F33" s="7">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="8">
         <v>43840</v>
@@ -1391,7 +1405,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
       <c r="C35" s="8">
         <v>43862</v>
@@ -1403,14 +1417,14 @@
         <v>17</v>
       </c>
       <c r="F35" s="7">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
       <c r="C36" s="8">
         <v>43871</v>
@@ -1431,7 +1445,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
       <c r="C37" s="8">
         <v>43891</v>
@@ -1443,14 +1457,14 @@
         <v>17</v>
       </c>
       <c r="F37" s="7">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
       <c r="C38" s="8">
         <v>43900</v>
@@ -1471,7 +1485,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
       <c r="C39" s="8">
         <v>43556</v>
@@ -1483,14 +1497,14 @@
         <v>17</v>
       </c>
       <c r="F39" s="7">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
       <c r="C40" s="8">
         <v>43931</v>
@@ -1511,7 +1525,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
       <c r="C41" s="8">
         <v>43952</v>
@@ -1523,14 +1537,14 @@
         <v>17</v>
       </c>
       <c r="F41" s="7">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="8">
         <v>43961</v>
@@ -1551,7 +1565,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
       <c r="C43" s="8">
         <v>43983</v>
@@ -1563,14 +1577,14 @@
         <v>17</v>
       </c>
       <c r="F43" s="7">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
       <c r="C44" s="8">
         <v>43992</v>
@@ -1591,7 +1605,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
       <c r="C45" s="8">
         <v>44013</v>
@@ -1603,14 +1617,14 @@
         <v>17</v>
       </c>
       <c r="F45" s="7">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
       <c r="C46" s="8">
         <v>44022</v>
@@ -1631,7 +1645,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
       <c r="C47" s="8">
         <v>44044</v>
@@ -1643,14 +1657,14 @@
         <v>17</v>
       </c>
       <c r="F47" s="7">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
       <c r="C48" s="8">
         <v>44053</v>
@@ -1671,7 +1685,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="9"/>
       <c r="C49" s="8">
         <v>44075</v>
@@ -1683,14 +1697,14 @@
         <v>17</v>
       </c>
       <c r="F49" s="7">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="9"/>
       <c r="C50" s="8">
         <v>44084</v>
@@ -1711,7 +1725,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="9"/>
       <c r="C51" s="8">
         <v>44105</v>
@@ -1723,14 +1737,14 @@
         <v>17</v>
       </c>
       <c r="F51" s="7">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="C52" s="8">
         <v>44114</v>
@@ -1751,7 +1765,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="9"/>
       <c r="C53" s="8">
         <v>44136</v>
@@ -1763,14 +1777,14 @@
         <v>17</v>
       </c>
       <c r="F53" s="7">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="9"/>
       <c r="C54" s="8">
         <v>44145</v>
@@ -1791,7 +1805,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="9"/>
       <c r="C55" s="8">
         <v>44166</v>
@@ -1803,14 +1817,14 @@
         <v>17</v>
       </c>
       <c r="F55" s="7">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="8">
         <v>44175</v>
@@ -1831,7 +1845,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="9"/>
       <c r="C57" s="8">
         <v>44197</v>
@@ -1843,14 +1857,14 @@
         <v>17</v>
       </c>
       <c r="F57" s="7">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="9"/>
       <c r="C58" s="8">
         <v>44206</v>
@@ -1871,7 +1885,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="9"/>
       <c r="C59" s="8">
         <v>44228</v>
@@ -1883,14 +1897,14 @@
         <v>17</v>
       </c>
       <c r="F59" s="7">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
       <c r="C60" s="8">
         <v>44237</v>
@@ -1911,7 +1925,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -1919,19 +1933,19 @@
         <v>19</v>
       </c>
       <c r="F61" s="3">
-        <f>SUM(F3:F23)</f>
-        <v>34618.85</v>
+        <f>SUM(F3:F30)</f>
+        <v>42360.979999999996</v>
       </c>
       <c r="G61" s="4">
         <f>G62/F61</f>
-        <v>0.71980582832763074</v>
+        <v>0.68334561665003979</v>
       </c>
       <c r="H61" s="4">
         <f>H62/F61</f>
-        <v>0.27874987181838795</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.31231572074111602</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -1939,22 +1953,23 @@
         <v>14</v>
       </c>
       <c r="F62" s="6">
-        <f>SUM(F4:F32)</f>
-        <v>31616.249999999996</v>
+        <f>SUM(F4:F60)</f>
+        <v>60653.180000000044</v>
       </c>
       <c r="G62" s="6">
-        <f>SUM(G3:G23)</f>
-        <v>24918.85</v>
+        <f>SUM(G3:G30)</f>
+        <v>28947.19</v>
       </c>
       <c r="H62" s="6">
-        <f>SUM(H4:H23)</f>
-        <v>9650</v>
+        <f>SUM(H4:H30)</f>
+        <v>13230</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Arquivos/Acerto AP.xlsx
+++ b/Arquivos/Acerto AP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Xampp\htdocs\Testes\Controle_Financeiro\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03168B4-B67B-48A4-BAFB-DD22153B1165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6F190A-8F9C-4EEF-B27D-112C670E3DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{259B233A-82EC-4420-B52E-363BB860C0EF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{259B233A-82EC-4420-B52E-363BB860C0EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="26">
   <si>
     <t>Descricao</t>
   </si>
@@ -664,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A21A576-F462-4417-98D5-276940579365}">
   <dimension ref="B2:H62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1326,7 +1328,9 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="9"/>
+      <c r="B31" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C31" s="8">
         <v>43800</v>
       </c>
@@ -1337,7 +1341,7 @@
         <v>17</v>
       </c>
       <c r="F31" s="7">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7">
@@ -1345,7 +1349,9 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="9"/>
+      <c r="B32" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C32" s="8">
         <v>43809</v>
       </c>
@@ -1356,17 +1362,20 @@
         <v>16</v>
       </c>
       <c r="F32" s="7">
-        <v>1519.48</v>
+        <v>1600.68</v>
       </c>
       <c r="G32" s="7">
-        <v>909.5</v>
+        <f>Tabela1[[#This Row],[Total]]+F31-H31-Tabela1[[#This Row],[Fernanda]]</f>
+        <v>1310.6800000000003</v>
       </c>
       <c r="H32" s="7">
-        <v>600</v>
+        <v>690</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="9"/>
+      <c r="B33" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C33" s="8">
         <v>43831</v>
       </c>
@@ -1377,7 +1386,7 @@
         <v>17</v>
       </c>
       <c r="F33" s="7">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7">
@@ -1385,7 +1394,9 @@
       </c>
     </row>
     <row r="34" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="9"/>
+      <c r="B34" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C34" s="8">
         <v>43840</v>
       </c>
@@ -1396,17 +1407,20 @@
         <v>16</v>
       </c>
       <c r="F34" s="7">
-        <v>1519.48</v>
+        <v>1335.32</v>
       </c>
       <c r="G34" s="7">
-        <v>909.5</v>
+        <f>Tabela1[[#This Row],[Total]]+F33-H33-Tabela1[[#This Row],[Fernanda]]</f>
+        <v>1045.32</v>
       </c>
       <c r="H34" s="7">
-        <v>600</v>
+        <v>690</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="9"/>
+      <c r="B35" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C35" s="8">
         <v>43862</v>
       </c>
@@ -1417,7 +1431,7 @@
         <v>17</v>
       </c>
       <c r="F35" s="7">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7">
@@ -1425,7 +1439,9 @@
       </c>
     </row>
     <row r="36" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="9"/>
+      <c r="B36" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C36" s="8">
         <v>43871</v>
       </c>
@@ -1436,13 +1452,14 @@
         <v>16</v>
       </c>
       <c r="F36" s="7">
-        <v>1519.48</v>
+        <v>1337.68</v>
       </c>
       <c r="G36" s="7">
-        <v>909.5</v>
+        <f>Tabela1[[#This Row],[Total]]+F35-H35-Tabela1[[#This Row],[Fernanda]]</f>
+        <v>1037.68</v>
       </c>
       <c r="H36" s="7">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1933,16 +1950,16 @@
         <v>19</v>
       </c>
       <c r="F61" s="3">
-        <f>SUM(F3:F30)</f>
-        <v>42360.979999999996</v>
+        <f>SUM(F3:F36)</f>
+        <v>48734.659999999996</v>
       </c>
       <c r="G61" s="4">
         <f>G62/F61</f>
-        <v>0.68334561665003979</v>
+        <v>0.66361127788723673</v>
       </c>
       <c r="H61" s="4">
         <f>H62/F61</f>
-        <v>0.31231572074111602</v>
+        <v>0.33261748414783238</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
@@ -1953,16 +1970,16 @@
         <v>14</v>
       </c>
       <c r="F62" s="6">
-        <f>SUM(F4:F60)</f>
-        <v>60653.180000000044</v>
+        <f>SUM(F3:F60)</f>
+        <v>72968.420000000013</v>
       </c>
       <c r="G62" s="6">
-        <f>SUM(G3:G30)</f>
-        <v>28947.19</v>
+        <f>SUM(G3:G36)</f>
+        <v>32340.87</v>
       </c>
       <c r="H62" s="6">
-        <f>SUM(H4:H30)</f>
-        <v>13230</v>
+        <f>SUM(H4:H36)</f>
+        <v>16210</v>
       </c>
     </row>
   </sheetData>

--- a/Arquivos/Acerto AP.xlsx
+++ b/Arquivos/Acerto AP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Xampp\htdocs\Testes\Controle_Financeiro\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6F190A-8F9C-4EEF-B27D-112C670E3DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942BB9E4-69C7-45FB-ABDC-084D22D6AA18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{259B233A-82EC-4420-B52E-363BB860C0EF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{259B233A-82EC-4420-B52E-363BB860C0EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="26">
   <si>
     <t>Descricao</t>
   </si>
@@ -117,7 +117,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -205,7 +206,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -222,6 +223,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -666,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A21A576-F462-4417-98D5-276940579365}">
   <dimension ref="B2:H62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1463,7 +1465,9 @@
       </c>
     </row>
     <row r="37" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="9"/>
+      <c r="B37" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C37" s="8">
         <v>43891</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>17</v>
       </c>
       <c r="F37" s="7">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7">
@@ -1482,7 +1486,9 @@
       </c>
     </row>
     <row r="38" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="9"/>
+      <c r="B38" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C38" s="8">
         <v>43900</v>
       </c>
@@ -1493,17 +1499,20 @@
         <v>16</v>
       </c>
       <c r="F38" s="7">
-        <v>1519.48</v>
-      </c>
-      <c r="G38" s="7">
-        <v>909.5</v>
+        <v>1342.33</v>
+      </c>
+      <c r="G38" s="12">
+        <f>(SUM(F37:F38)-SUM(H37:H38))</f>
+        <v>1142.33</v>
       </c>
       <c r="H38" s="7">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="9"/>
+      <c r="B39" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C39" s="8">
         <v>43556</v>
       </c>
@@ -1514,7 +1523,7 @@
         <v>17</v>
       </c>
       <c r="F39" s="7">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7">
@@ -1522,7 +1531,9 @@
       </c>
     </row>
     <row r="40" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="9"/>
+      <c r="B40" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C40" s="8">
         <v>43931</v>
       </c>
@@ -1533,17 +1544,20 @@
         <v>16</v>
       </c>
       <c r="F40" s="7">
-        <v>1519.48</v>
-      </c>
-      <c r="G40" s="7">
-        <v>909.5</v>
+        <v>1347.64</v>
+      </c>
+      <c r="G40" s="12">
+        <f>(SUM(F39:F40)-SUM(H39:H40))</f>
+        <v>1347.6400000000003</v>
       </c>
       <c r="H40" s="7">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="9"/>
+      <c r="B41" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C41" s="8">
         <v>43952</v>
       </c>
@@ -1554,7 +1568,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="7">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7">
@@ -1562,7 +1576,9 @@
       </c>
     </row>
     <row r="42" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="9"/>
+      <c r="B42" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C42" s="8">
         <v>43961</v>
       </c>
@@ -1573,17 +1589,20 @@
         <v>16</v>
       </c>
       <c r="F42" s="7">
-        <v>1519.48</v>
-      </c>
-      <c r="G42" s="7">
-        <v>909.5</v>
+        <v>1350.27</v>
+      </c>
+      <c r="G42" s="12">
+        <f t="shared" ref="G42" si="0">(SUM(F41:F42)-SUM(H41:H42))</f>
+        <v>1350.27</v>
       </c>
       <c r="H42" s="7">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="9"/>
+      <c r="B43" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C43" s="8">
         <v>43983</v>
       </c>
@@ -1594,7 +1613,7 @@
         <v>17</v>
       </c>
       <c r="F43" s="7">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7">
@@ -1602,7 +1621,9 @@
       </c>
     </row>
     <row r="44" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="9"/>
+      <c r="B44" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C44" s="8">
         <v>43992</v>
       </c>
@@ -1613,17 +1634,20 @@
         <v>16</v>
       </c>
       <c r="F44" s="7">
-        <v>1519.48</v>
-      </c>
-      <c r="G44" s="7">
-        <v>909.5</v>
+        <v>1354.1</v>
+      </c>
+      <c r="G44" s="12">
+        <f t="shared" ref="G44" si="1">(SUM(F43:F44)-SUM(H43:H44))</f>
+        <v>1554.1</v>
       </c>
       <c r="H44" s="7">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="9"/>
+      <c r="B45" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C45" s="8">
         <v>44013</v>
       </c>
@@ -1634,7 +1658,7 @@
         <v>17</v>
       </c>
       <c r="F45" s="7">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7">
@@ -1642,7 +1666,9 @@
       </c>
     </row>
     <row r="46" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="9"/>
+      <c r="B46" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C46" s="8">
         <v>44022</v>
       </c>
@@ -1653,17 +1679,20 @@
         <v>16</v>
       </c>
       <c r="F46" s="7">
-        <v>1519.48</v>
-      </c>
-      <c r="G46" s="7">
-        <v>909.5</v>
+        <v>1356.83</v>
+      </c>
+      <c r="G46" s="12">
+        <f t="shared" ref="G46" si="2">(SUM(F45:F46)-SUM(H45:H46))</f>
+        <v>1556.83</v>
       </c>
       <c r="H46" s="7">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="9"/>
+      <c r="B47" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C47" s="8">
         <v>44044</v>
       </c>
@@ -1674,7 +1703,7 @@
         <v>17</v>
       </c>
       <c r="F47" s="7">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7">
@@ -1682,7 +1711,9 @@
       </c>
     </row>
     <row r="48" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="9"/>
+      <c r="B48" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C48" s="8">
         <v>44053</v>
       </c>
@@ -1693,17 +1724,20 @@
         <v>16</v>
       </c>
       <c r="F48" s="7">
-        <v>1519.48</v>
-      </c>
-      <c r="G48" s="7">
-        <v>909.5</v>
+        <v>1305.82</v>
+      </c>
+      <c r="G48" s="12">
+        <f t="shared" ref="G48" si="3">(SUM(F47:F48)-SUM(H47:H48))</f>
+        <v>1505.8199999999997</v>
       </c>
       <c r="H48" s="7">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="9"/>
+      <c r="B49" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C49" s="8">
         <v>44075</v>
       </c>
@@ -1714,7 +1748,7 @@
         <v>17</v>
       </c>
       <c r="F49" s="7">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7">
@@ -1722,7 +1756,9 @@
       </c>
     </row>
     <row r="50" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="9"/>
+      <c r="B50" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C50" s="8">
         <v>44084</v>
       </c>
@@ -1733,13 +1769,14 @@
         <v>16</v>
       </c>
       <c r="F50" s="7">
-        <v>1519.48</v>
-      </c>
-      <c r="G50" s="7">
-        <v>909.5</v>
+        <v>1321.53</v>
+      </c>
+      <c r="G50" s="12">
+        <f t="shared" ref="G50" si="4">(SUM(F49:F50)-SUM(H49:H50))</f>
+        <v>1521.5299999999997</v>
       </c>
       <c r="H50" s="7">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1754,7 +1791,7 @@
         <v>17</v>
       </c>
       <c r="F51" s="7">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7">
@@ -1773,13 +1810,14 @@
         <v>16</v>
       </c>
       <c r="F52" s="7">
-        <v>1519.48</v>
-      </c>
-      <c r="G52" s="7">
-        <v>909.5</v>
+        <v>1321.53</v>
+      </c>
+      <c r="G52" s="12">
+        <f t="shared" ref="G52" si="5">(SUM(F51:F52)-SUM(H51:H52))</f>
+        <v>1521.5299999999997</v>
       </c>
       <c r="H52" s="7">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1794,7 +1832,7 @@
         <v>17</v>
       </c>
       <c r="F53" s="7">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7">
@@ -1813,13 +1851,14 @@
         <v>16</v>
       </c>
       <c r="F54" s="7">
-        <v>1519.48</v>
-      </c>
-      <c r="G54" s="7">
-        <v>909.5</v>
+        <v>1321.53</v>
+      </c>
+      <c r="G54" s="12">
+        <f t="shared" ref="G54" si="6">(SUM(F53:F54)-SUM(H53:H54))</f>
+        <v>1521.5299999999997</v>
       </c>
       <c r="H54" s="7">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1834,7 +1873,7 @@
         <v>17</v>
       </c>
       <c r="F55" s="7">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7">
@@ -1853,13 +1892,14 @@
         <v>16</v>
       </c>
       <c r="F56" s="7">
-        <v>1519.48</v>
-      </c>
-      <c r="G56" s="7">
-        <v>909.5</v>
+        <v>1321.53</v>
+      </c>
+      <c r="G56" s="12">
+        <f t="shared" ref="G56" si="7">(SUM(F55:F56)-SUM(H55:H56))</f>
+        <v>1521.5299999999997</v>
       </c>
       <c r="H56" s="7">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1874,7 +1914,7 @@
         <v>17</v>
       </c>
       <c r="F57" s="7">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7">
@@ -1893,13 +1933,14 @@
         <v>16</v>
       </c>
       <c r="F58" s="7">
-        <v>1519.48</v>
-      </c>
-      <c r="G58" s="7">
-        <v>909.5</v>
+        <v>1321.53</v>
+      </c>
+      <c r="G58" s="12">
+        <f t="shared" ref="G58" si="8">(SUM(F57:F58)-SUM(H57:H58))</f>
+        <v>1521.5299999999997</v>
       </c>
       <c r="H58" s="7">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1914,7 +1955,7 @@
         <v>17</v>
       </c>
       <c r="F59" s="7">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7">
@@ -1933,13 +1974,14 @@
         <v>16</v>
       </c>
       <c r="F60" s="7">
-        <v>1519.48</v>
-      </c>
-      <c r="G60" s="7">
-        <v>909.5</v>
+        <v>1321.53</v>
+      </c>
+      <c r="G60" s="12">
+        <f t="shared" ref="G60" si="9">(SUM(F59:F60)-SUM(H59:H60))</f>
+        <v>1521.5299999999997</v>
       </c>
       <c r="H60" s="7">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
@@ -1950,16 +1992,16 @@
         <v>19</v>
       </c>
       <c r="F61" s="3">
-        <f>SUM(F3:F36)</f>
-        <v>48734.659999999996</v>
+        <f>SUM(F3:F50)</f>
+        <v>65713.179999999993</v>
       </c>
       <c r="G61" s="4">
         <f>G62/F61</f>
-        <v>0.66361127788723673</v>
+        <v>0.64400155341744225</v>
       </c>
       <c r="H61" s="4">
         <f>H62/F61</f>
-        <v>0.33261748414783238</v>
+        <v>0.35320159517466665</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
@@ -1971,15 +2013,15 @@
       </c>
       <c r="F62" s="6">
         <f>SUM(F3:F60)</f>
-        <v>72968.420000000013</v>
+        <v>78320.829999999987</v>
       </c>
       <c r="G62" s="6">
-        <f>SUM(G3:G36)</f>
-        <v>32340.87</v>
+        <f>SUM(G3:G50)</f>
+        <v>42319.389999999992</v>
       </c>
       <c r="H62" s="6">
-        <f>SUM(H4:H36)</f>
-        <v>16210</v>
+        <f>SUM(H4:H50)</f>
+        <v>23210</v>
       </c>
     </row>
   </sheetData>

--- a/Arquivos/Acerto AP.xlsx
+++ b/Arquivos/Acerto AP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Xampp\htdocs\Testes\Controle_Financeiro\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942BB9E4-69C7-45FB-ABDC-084D22D6AA18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D262F60-261F-4147-AC4E-723C2ED988AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{259B233A-82EC-4420-B52E-363BB860C0EF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{259B233A-82EC-4420-B52E-363BB860C0EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="26">
   <si>
     <t>Descricao</t>
   </si>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A21A576-F462-4417-98D5-276940579365}">
   <dimension ref="B2:H62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1780,7 +1780,9 @@
       </c>
     </row>
     <row r="51" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="9"/>
+      <c r="B51" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C51" s="8">
         <v>44105</v>
       </c>
@@ -1791,15 +1793,17 @@
         <v>17</v>
       </c>
       <c r="F51" s="7">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7">
-        <v>300</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="9"/>
+      <c r="B52" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C52" s="8">
         <v>44114</v>
       </c>
@@ -1813,15 +1817,18 @@
         <v>1321.53</v>
       </c>
       <c r="G52" s="12">
-        <f t="shared" ref="G52" si="5">(SUM(F51:F52)-SUM(H51:H52))</f>
-        <v>1521.5299999999997</v>
-      </c>
-      <c r="H52" s="7">
-        <v>700</v>
+        <f>(F51+F52)-(H51+H52)</f>
+        <v>571.52999999999975</v>
+      </c>
+      <c r="H52" s="12">
+        <f>2000-H51</f>
+        <v>750</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="9"/>
+      <c r="B53" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C53" s="8">
         <v>44136</v>
       </c>
@@ -1834,13 +1841,15 @@
       <c r="F53" s="7">
         <v>1200</v>
       </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7">
-        <v>300</v>
-      </c>
+      <c r="G53" s="7">
+        <v>1200</v>
+      </c>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="9"/>
+      <c r="B54" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C54" s="8">
         <v>44145</v>
       </c>
@@ -1851,15 +1860,12 @@
         <v>16</v>
       </c>
       <c r="F54" s="7">
-        <v>1321.53</v>
+        <v>1345.59</v>
       </c>
       <c r="G54" s="12">
-        <f t="shared" ref="G54" si="6">(SUM(F53:F54)-SUM(H53:H54))</f>
-        <v>1521.5299999999997</v>
-      </c>
-      <c r="H54" s="7">
-        <v>700</v>
-      </c>
+        <v>1345.59</v>
+      </c>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="9"/>
@@ -1895,7 +1901,7 @@
         <v>1321.53</v>
       </c>
       <c r="G56" s="12">
-        <f t="shared" ref="G56" si="7">(SUM(F55:F56)-SUM(H55:H56))</f>
+        <f t="shared" ref="G56" si="5">(SUM(F55:F56)-SUM(H55:H56))</f>
         <v>1521.5299999999997</v>
       </c>
       <c r="H56" s="7">
@@ -1936,7 +1942,7 @@
         <v>1321.53</v>
       </c>
       <c r="G58" s="12">
-        <f t="shared" ref="G58" si="8">(SUM(F57:F58)-SUM(H57:H58))</f>
+        <f t="shared" ref="G58" si="6">(SUM(F57:F58)-SUM(H57:H58))</f>
         <v>1521.5299999999997</v>
       </c>
       <c r="H58" s="7">
@@ -1977,7 +1983,7 @@
         <v>1321.53</v>
       </c>
       <c r="G60" s="12">
-        <f t="shared" ref="G60" si="9">(SUM(F59:F60)-SUM(H59:H60))</f>
+        <f t="shared" ref="G60" si="7">(SUM(F59:F60)-SUM(H59:H60))</f>
         <v>1521.5299999999997</v>
       </c>
       <c r="H60" s="7">
@@ -1992,16 +1998,16 @@
         <v>19</v>
       </c>
       <c r="F61" s="3">
-        <f>SUM(F3:F50)</f>
-        <v>65713.179999999993</v>
+        <f>SUM(F3:F54)</f>
+        <v>70830.299999999988</v>
       </c>
       <c r="G61" s="4">
         <f>G62/F61</f>
-        <v>0.64400155341744225</v>
+        <v>0.64148408237717469</v>
       </c>
       <c r="H61" s="4">
         <f>H62/F61</f>
-        <v>0.35320159517466665</v>
+        <v>0.3559211241516696</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
@@ -2013,15 +2019,15 @@
       </c>
       <c r="F62" s="6">
         <f>SUM(F3:F60)</f>
-        <v>78320.829999999987</v>
+        <v>78394.889999999985</v>
       </c>
       <c r="G62" s="6">
-        <f>SUM(G3:G50)</f>
-        <v>42319.389999999992</v>
+        <f>SUM(G3:G54)</f>
+        <v>45436.509999999987</v>
       </c>
       <c r="H62" s="6">
-        <f>SUM(H4:H50)</f>
-        <v>23210</v>
+        <f>SUM(H4:H54)</f>
+        <v>25210</v>
       </c>
     </row>
   </sheetData>
